--- a/InsideEV_2016.xlsx
+++ b/InsideEV_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/src/evsales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEA776F-DEAC-0344-B3F5-88EFEAD46D37}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E9FBDB-4018-AF44-BA2C-E68B6EAA371A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="9940" windowWidth="27780" windowHeight="13840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tesla S</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Chevy Spark</t>
+  </si>
+  <si>
+    <t>Chevy Bolt</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +623,7 @@
         <v>3691</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N12" si="1">SUM(B3:M3)</f>
+        <f t="shared" ref="N3:N13" si="1">SUM(B3:M3)</f>
         <v>24739</v>
       </c>
     </row>
@@ -1027,6 +1030,18 @@
       <c r="N12" s="2">
         <f t="shared" si="1"/>
         <v>3035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>579</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="1"/>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
